--- a/z-assets/nastaveni/UzivatelskeSloupce.xlsx
+++ b/z-assets/nastaveni/UzivatelskeSloupce.xlsx
@@ -351,13 +351,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="30:30"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -1010,6 +1010,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z-assets/nastaveni/UzivatelskeSloupce.xlsx
+++ b/z-assets/nastaveni/UzivatelskeSloupce.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="GemRid253406"/>
+    <sheet name="List1" sheetId="1" r:id="GemRid359265"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Název sloupce</t>
   </si>
@@ -32,15 +32,36 @@
     <t>Pořadí</t>
   </si>
   <si>
+    <t>Skladová cena</t>
+  </si>
+  <si>
+    <t>Částka</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Marže</t>
+  </si>
+  <si>
+    <t>Datum změny zásoby</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Číslo dokladu</t>
+  </si>
+  <si>
     <t>Poznamka interní</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -50,9 +71,6 @@
     <t>Desetinné číslo</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Datum pořízení</t>
   </si>
   <si>
@@ -98,16 +116,10 @@
     <t>Kategorie položek katalogu</t>
   </si>
   <si>
-    <t>Marže</t>
-  </si>
-  <si>
     <t>Položka dodacího listu vydaného</t>
   </si>
   <si>
     <t>Nákupní cena</t>
-  </si>
-  <si>
-    <t>Částka</t>
   </si>
   <si>
     <t>Množství pozn.</t>
@@ -512,10 +524,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.27734" customWidth="1"/>
+    <col min="1" max="1" width="30.26953" customWidth="1"/>
     <col min="2" max="2" width="11.13672" customWidth="1"/>
     <col min="3" max="3" width="10.70703" customWidth="1"/>
-    <col min="4" max="4" width="10.70703" customWidth="1"/>
+    <col min="4" max="4" width="26.98438" customWidth="1"/>
     <col min="5" max="5" width="10.70703" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -572,13 +584,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -589,13 +601,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -606,36 +618,36 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -643,180 +655,180 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -827,13 +839,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
@@ -844,19 +856,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -864,106 +876,106 @@
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E26" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -972,109 +984,109 @@
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -1082,16 +1094,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1099,24 +1111,24 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
@@ -1125,26 +1137,94 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="3">
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
         <v>0</v>
       </c>
     </row>

--- a/z-assets/nastaveni/UzivatelskeSloupce.xlsx
+++ b/z-assets/nastaveni/UzivatelskeSloupce.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="GemRid359265"/>
+    <sheet name="List1" sheetId="1" r:id="GemRid709790"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Název sloupce</t>
   </si>
@@ -164,10 +164,37 @@
     <t>Položka prodejky vydané</t>
   </si>
   <si>
+    <t>Počítat prodej zásob</t>
+  </si>
+  <si>
+    <t>Produktový klíč</t>
+  </si>
+  <si>
     <t>Kód</t>
   </si>
   <si>
     <t>Spojení</t>
+  </si>
+  <si>
+    <t>Prodej AVG</t>
+  </si>
+  <si>
+    <t>Zásoba</t>
+  </si>
+  <si>
+    <t>Prodej MED</t>
+  </si>
+  <si>
+    <t>Prodej Min AVG</t>
+  </si>
+  <si>
+    <t>Celé číslo</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Prodej Min MED</t>
   </si>
 </sst>
 </file>
@@ -1212,20 +1239,190 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
